--- a/experiment result/64_0.9_40_zs50_kappa_lp.xlsx
+++ b/experiment result/64_0.9_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.004245142990370378</v>
+        <v>0.01022644907018289</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.007387790032503923</v>
+        <v>0.005150857459299519</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0052298006542148</v>
+        <v>0.004663687888942773</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.004471492237837998</v>
+        <v>0.01919782136581781</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.007448197942377504</v>
+        <v>0.01553603616769967</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02381845101880158</v>
+        <v>0.05606486844188911</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.002654017904486125</v>
+        <v>0.006035557594457559</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01463915308874295</v>
+        <v>0.01055699308092266</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.003230551583127305</v>
+        <v>0.00274242400885503</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.009951082589674009</v>
+        <v>0.03107171135864699</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01004216466800999</v>
+        <v>0.03542906904574672</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03408057054891982</v>
+        <v>0.1353963437045121</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.006638379000429939</v>
+        <v>0.002087639302523482</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02791195593896794</v>
+        <v>0.009231352836125469</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.002341934129872813</v>
+        <v>0.02119032853518599</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0158387493882154</v>
+        <v>0.00157286939515634</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02366142088345103</v>
+        <v>0.03358213431954624</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03206287818732877</v>
+        <v>0.001001713061331533</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.003134306667796146</v>
+        <v>0.009807894573781253</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.001634228094290592</v>
+        <v>0.006622732456244366</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.006727003739900925</v>
+        <v>0.005848234501413876</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.006165611385650169</v>
+        <v>0.02995772064641694</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01167494654443904</v>
+        <v>0.0121336991254775</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.008348582603388433</v>
+        <v>0.001579294320794945</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.004934763151307493</v>
+        <v>0.002615820639588058</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0002870084273002448</v>
+        <v>0.01034713007737942</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.000408634912986392</v>
+        <v>0.0035766205822826</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.003904888048372696</v>
+        <v>0.01588969624978425</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.003474655774459402</v>
+        <v>0.02435210438003468</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.002234725961211384</v>
+        <v>0.004011874948799576</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.006669260593776758</v>
+        <v>0.005668164581853785</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.008024338034159102</v>
+        <v>0.006108868266234144</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01976783299081302</v>
+        <v>0.01499924671059328</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0302816011731044</v>
+        <v>0.01707682720418313</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.001295560820008303</v>
+        <v>0.02726752017816664</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00103583396676489</v>
+        <v>0.009478422351709471</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0132066384828895</v>
+        <v>0.01882154067342026</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02597992496039274</v>
+        <v>0.02538313059439534</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.003808380025912494</v>
+        <v>0.02912006337374938</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.008012879274955056</v>
+        <v>0.04763367711846941</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.008846780461392641</v>
+        <v>0.04283269529551186</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.002158199798265784</v>
+        <v>0.02035614240630542</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.003014712975370597</v>
+        <v>0.00711658159307433</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.002467226785276742</v>
+        <v>0.006228340744526184</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.007294805873867227</v>
+        <v>0.02646728297982446</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.008454048017857931</v>
+        <v>0.01150144022053667</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.005518649771183491</v>
+        <v>0.02063180224124116</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01771606102756089</v>
+        <v>0.02697126110061024</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.04916552801386671</v>
+        <v>0.01893775990806764</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.003863747269126604</v>
+        <v>0.0009336041336671845</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.005366816786549734</v>
+        <v>0.01153561670076134</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.03659164070905831</v>
+        <v>0.05094870489144656</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.009094939253002865</v>
+        <v>7.823117662051779e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.001436687843600934</v>
+        <v>0.001070951673215923</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01282597607954246</v>
+        <v>0.001114373016492836</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.002446704115824905</v>
+        <v>0.007674631314977537</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.009464928943345514</v>
+        <v>0.002919873273328834</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.003280929416405863</v>
+        <v>0.00895792172916093</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0168811010498267</v>
+        <v>0.01115827533365125</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0003098695749318505</v>
+        <v>0.00463418568566353</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.001149793240622184</v>
+        <v>0.0007533558141991929</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.001235034415945708</v>
+        <v>0.002112357464051738</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.03082988985511903</v>
+        <v>0.03038485303847905</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.002779740440068303</v>
+        <v>0.007304271842845772</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.005581420176885373</v>
+        <v>0.03355360095133279</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.02151508002265828</v>
+        <v>0.03764720290924935</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.001210994793229704</v>
+        <v>0.003235308313483632</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.008201903352396485</v>
+        <v>0.02294720752734685</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.004773521581413287</v>
+        <v>0.0002577006657713572</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.005555408658640706</v>
+        <v>0.009567465292917004</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.00363565990053498</v>
+        <v>0.002455698208618276</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.003023797192093464</v>
+        <v>0.0002384247449037862</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.01034859006620044</v>
+        <v>0.01907217051995918</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0124003552652039</v>
+        <v>0.01410058427549512</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.00032258351583362</v>
+        <v>0.007207584194484862</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.01532140315955636</v>
+        <v>0.04378877231501567</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.009188986888967191</v>
+        <v>0.0007101515121937782</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.003326035655746299</v>
+        <v>0.008170237220965252</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.03103658861315851</v>
+        <v>0.04282604377782703</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.01052744089190376</v>
+        <v>0.00732282330557351</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.004346156090417923</v>
+        <v>0.02049741500473282</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.06418555736427782</v>
+        <v>0.02231036861708653</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.01624430696595484</v>
+        <v>0.01509724799555237</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.009823500521965664</v>
+        <v>0.01325298550939448</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.008338414620566734</v>
+        <v>0.04287368476933316</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.006790001227987019</v>
+        <v>0.01835937872553835</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.003019457169098036</v>
+        <v>0.01255227967131051</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.006028318129761457</v>
+        <v>0.007548682177691194</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.007302143938481638</v>
+        <v>0.005037541739978275</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.005171970152523191</v>
+        <v>0.008313364939147248</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.01120676976641924</v>
+        <v>0.03367768471202505</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.005226140246371154</v>
+        <v>0.0137817527010053</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.01097244076012534</v>
+        <v>0.01121851541611533</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.003599242083075532</v>
+        <v>0.01338800766702438</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.00196148541797449</v>
+        <v>0.003918803380658315</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.001937685494163141</v>
+        <v>0.0003311792308992139</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.006189189618988934</v>
+        <v>0.0002558094183743963</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.01207962945180176</v>
+        <v>0.06158095735815339</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.004908256257820407</v>
+        <v>0.01112688728523078</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.008327701170243586</v>
+        <v>0.01601947849117371</v>
       </c>
     </row>
   </sheetData>
